--- a/element_info_datas/elment_data1.xlsx
+++ b/element_info_datas/elment_data1.xlsx
@@ -119,6 +119,126 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -127,96 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -225,36 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,19 +272,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,19 +338,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,37 +374,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,25 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,67 +428,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,11 +481,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,15 +526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -544,17 +541,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,8 +553,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,133 +598,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1178,182 +1178,190 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="18.75" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="18.75" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="18.75" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="18.75" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="18.75" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="18.75" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="18.75" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="18.75" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="18.75" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="18.75" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="18.75" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" ht="18.75" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" ht="18.75" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" ht="18.75" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="18.75" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" ht="18.75" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" ht="18.75" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" ht="18.75" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" ht="18.75" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" ht="18.75" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" ht="18.75" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" ht="18.75" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" ht="18.75" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" ht="18.75" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" ht="18.75" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>"id,name,class,xpath"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C35">
+      <formula1>"class,name,id,xpath"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/element_info_datas/elment_data1.xlsx
+++ b/element_info_datas/elment_data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>元素变量名</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>//button[@class="btn btn-primary" and @type="submit"]</t>
+  </si>
+  <si>
+    <t>bug_link</t>
+  </si>
+  <si>
+    <t>bug的标题%s</t>
+  </si>
+  <si>
+    <t>//a[text()="%s"]</t>
   </si>
   <si>
     <t>元素名称</t>
@@ -98,9 +107,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -120,6 +129,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -127,6 +165,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,92 +241,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,9 +256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,22 +271,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -272,121 +281,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,61 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,36 +486,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,11 +529,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,7 +563,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +578,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,137 +607,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +752,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1098,7 +1110,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1179,11 +1191,21 @@
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" ht="18.75" spans="1:5">
       <c r="A6" s="4"/>
@@ -1358,7 +1380,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"id,name,class,xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C4 C6:C35">
       <formula1>"class,name,id,xpath"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1390,30 +1412,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
@@ -1421,16 +1443,16 @@
     </row>
     <row r="3" ht="18.75" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
